--- a/biology/Botanique/Arrhenatherum_longifolium/Arrhenatherum_longifolium.xlsx
+++ b/biology/Botanique/Arrhenatherum_longifolium/Arrhenatherum_longifolium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrhenatherum longifolium (ou Pseudarrhenatherum longifolium selon les classifications), l'avoine de Thore, est une espèce de plantes annuelles de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire de l'Ancien Monde.
-Son nom vernaculaire, « avoine de Thore » est un hommage au botaniste Jean Thore qui fut le premier à la décrire en la classant dans les avoines. Cependant, l'espèce n'appartient plus au genre des avoines (Avena), mais en est très proche, les deux genres Avena et Arrhenatum appartenant à la sous-tribu des Aveninae[2].
+Son nom vernaculaire, « avoine de Thore » est un hommage au botaniste Jean Thore qui fut le premier à la décrire en la classant dans les avoines. Cependant, l'espèce n'appartient plus au genre des avoines (Avena), mais en est très proche, les deux genres Avena et Arrhenatum appartenant à la sous-tribu des Aveninae.
 Noms vernaculaires
-Avoine de Thore, Avoine à feuilles longues[3], Faux-fromental à feuilles longues.
+Avoine de Thore, Avoine à feuilles longues, Faux-fromental à feuilles longues.
 </t>
         </is>
       </c>
@@ -514,15 +526,52 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Avoine de Thore a été décrite sous le nom d'Arrhenatherum longifolium par le botaniste français Joseph Dulac et publiée dans sa Flore du Département des Hautes-Pyrénées (1867, p. 78)[4].
-L'espèce avait été décrite à l'origine par Jean Thore, qui en avait fait la première description et l'avait classée dans le genre Avena sous le nom d'Avena longifolia et publiée en août 1810 dans Promenade sur les côtes du Golfe de Gascogne, ou Aperçu topographique, physique et médical des côtes occidentales de ce même golfe (p. 92)[5].
-Synonymes
-Selon Catalogue of Life                                   (15 octobre 2016)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Avoine de Thore a été décrite sous le nom d'Arrhenatherum longifolium par le botaniste français Joseph Dulac et publiée dans sa Flore du Département des Hautes-Pyrénées (1867, p. 78).
+L'espèce avait été décrite à l'origine par Jean Thore, qui en avait fait la première description et l'avait classée dans le genre Avena sous le nom d'Avena longifolia et publiée en août 1810 dans Promenade sur les côtes du Golfe de Gascogne, ou Aperçu topographique, physique et médical des côtes occidentales de ce même golfe (p. 92).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Arrhenatherum_longifolium</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arrhenatherum_longifolium</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 octobre 2016) :
 Arrhenatherum thorei Desm., nom. superfl.
 Arrhenatherum thorei var. versicolor Magnier
-Avena longifolia Thore (basionyme[7])
+Avena longifolia Thore (basionyme)
 Avena montana Brot., nom. illeg.
 Avena thorei DC. &amp; Duby, nom. superfl.
 Avenastrum longifolium (Thore) Samp.
@@ -535,68 +584,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Arrhenatherum_longifolium</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arrhenatherum_longifolium</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Pseudarrhenatherum longifolium comprend le Sud-ouest de l'Europe (France, Espagne, Portugal) et l'ouest de l'Afrique du Nord (Maroc)[8].
-En France, l'avoine de Thore se localise principalement dans les bois et les landes sablonneuses maigres et acides de la côte Atlantique[9]. On la trouve sur des pelouses plus ou moins ouvertes, nettement stratifiées :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Pseudarrhenatherum longifolium comprend le Sud-ouest de l'Europe (France, Espagne, Portugal) et l'ouest de l'Afrique du Nord (Maroc).
+En France, l'avoine de Thore se localise principalement dans les bois et les landes sablonneuses maigres et acides de la côte Atlantique. On la trouve sur des pelouses plus ou moins ouvertes, nettement stratifiées :
 herbes de taille supérieure : Agrostide de Curtis (Agrostis curtisii), Fougère aigle (Pteridium aquilinum)
 strate inférieure : Scille de printemps (Scilla verna), Laîche à pilules (Carex pilulifera), chaméphytes.
 Les pelouses à Avoine de Thore s’inscrivent dans des séries régressives induites par des pratiques traditionnelles telles que le
 « soutrage » (fauchage pour la litière), le feu... La fertilisation et l’exploitation de la pelouse à Laîche à pilules
-et Avoine de Thore la transforment en prairies mésotrophiques thermo-atlantiques à Lin bisannuel (Linum bienne), Œnanthe faux boucage (Oenanthe pimpinelloides) et Gaudinie fragile (Gaudinia fragilis) (Brachypodio pinnati, Centaureion nemoralis)[10].
+et Avoine de Thore la transforment en prairies mésotrophiques thermo-atlantiques à Lin bisannuel (Linum bienne), Œnanthe faux boucage (Oenanthe pimpinelloides) et Gaudinie fragile (Gaudinia fragilis) (Brachypodio pinnati, Centaureion nemoralis).
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Arrhenatherum_longifolium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arrhenatherum_longifolium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une graminée cespiteuse hivernale dont la période végétative va de novembre à juin.
 Mesurant de 50 à 150 cm de hauteur, elle peut être considérée comme une espèce proche de l’Avoine d’hiver (Avena sativa L.) étudiée par Haun (1973).
@@ -611,31 +664,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Arrhenatherum_longifolium</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arrhenatherum_longifolium</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Fourrage de qualité moyenne.
 </t>
